--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_2.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9921391866491667</v>
+        <v>0.999238418737902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.991766798980256</v>
+        <v>0.9982224240558665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9896102684810684</v>
+        <v>0.9990669389235034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9926623539462833</v>
+        <v>0.9993587837995499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.991562957270538</v>
+        <v>0.9992579933561825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007337724213175785</v>
+        <v>0.0007109026786146533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007685331756174378</v>
+        <v>0.00165928911728259</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00332228344960376</v>
+        <v>0.0007888858787332837</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003813143920035261</v>
+        <v>0.001017497847311914</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00356771368481951</v>
+        <v>0.0009031918630225986</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01001759658046974</v>
+        <v>0.003029530549948393</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0856605172362144</v>
+        <v>0.02666275827094139</v>
       </c>
       <c r="N2" t="n">
-        <v>1.011097618848235</v>
+        <v>1.001075173546491</v>
       </c>
       <c r="O2" t="n">
-        <v>0.089307262796676</v>
+        <v>0.02779784709005384</v>
       </c>
       <c r="P2" t="n">
-        <v>91.82945307426567</v>
+        <v>96.49795003423095</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.8033618938619</v>
+        <v>146.4718588538272</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9919821631580328</v>
+        <v>0.9992242278323393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9916116674974038</v>
+        <v>0.9982082452175388</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9894601145945862</v>
+        <v>0.9990566670831441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9925048750602109</v>
+        <v>0.9993457959967378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9914094194542216</v>
+        <v>0.9992459602774486</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007484298749614576</v>
+        <v>0.0007241492660487242</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007830140185931818</v>
+        <v>0.001672524440482408</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00337029756537226</v>
+        <v>0.0007975705297300131</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003894980745164887</v>
+        <v>0.001038107216497203</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003632639155268573</v>
+        <v>0.0009178388731136081</v>
       </c>
       <c r="L3" t="n">
-        <v>0.010116720358289</v>
+        <v>0.003058531201887914</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08651184167277089</v>
+        <v>0.02691002166570522</v>
       </c>
       <c r="N3" t="n">
-        <v>1.011319299071012</v>
+        <v>1.001095207766109</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09019482987698121</v>
+        <v>0.02805563699943855</v>
       </c>
       <c r="P3" t="n">
-        <v>91.78989590585145</v>
+        <v>96.46102603650559</v>
       </c>
       <c r="Q3" t="n">
-        <v>141.7638047254477</v>
+        <v>146.4349348561018</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9918219420020962</v>
+        <v>0.9992097540100394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9914533545963966</v>
+        <v>0.9981937790199101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9893070591838042</v>
+        <v>0.9990462011561525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9923439528843386</v>
+        <v>0.9993325588147746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9912526688029679</v>
+        <v>0.9992336972428899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00763385816578557</v>
+        <v>0.0007376599438382556</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007977918329888815</v>
+        <v>0.001686028000976097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003419239490116553</v>
+        <v>0.0008064192773839148</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003978606939728404</v>
+        <v>0.001059112306734376</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003698923214922478</v>
+        <v>0.0009327657920591454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01021683935503487</v>
+        <v>0.003087807767140133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08737195296996382</v>
+        <v>0.02715989587311144</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0115454936441</v>
+        <v>1.001115641397591</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0910915578927715</v>
+        <v>0.02831614886916497</v>
       </c>
       <c r="P4" t="n">
-        <v>91.75032380822101</v>
+        <v>96.42405524052565</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.7242326278172</v>
+        <v>146.3979640601219</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9916584566901134</v>
+        <v>0.9991949845865228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9912917784709011</v>
+        <v>0.9981790187903127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9891512887161701</v>
+        <v>0.9990355580822952</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9921795483559254</v>
+        <v>0.9993190228811252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9910927518167973</v>
+        <v>0.9992211779537082</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007786464528345615</v>
+        <v>0.0007514465523883195</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008128742550666698</v>
+        <v>0.001699806027406047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003469049597876803</v>
+        <v>0.0008154177994355454</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004064042803403984</v>
+        <v>0.001080591463592869</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003766546200640393</v>
+        <v>0.000948004631514207</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01031797356057371</v>
+        <v>0.003117380266950443</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0882409458717755</v>
+        <v>0.0274125254653474</v>
       </c>
       <c r="N5" t="n">
-        <v>1.011776296437487</v>
+        <v>1.001136492348438</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09199754562147659</v>
+        <v>0.02857953342615777</v>
       </c>
       <c r="P5" t="n">
-        <v>91.71073673914367</v>
+        <v>96.38702094508048</v>
       </c>
       <c r="Q5" t="n">
-        <v>141.6846455587399</v>
+        <v>146.3609297646767</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9914916641666763</v>
+        <v>0.9991799142782536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9911268852952586</v>
+        <v>0.9981639538044832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9889926905497294</v>
+        <v>0.9990247067749589</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9920115258798287</v>
+        <v>0.9993052185490081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9909295425878029</v>
+        <v>0.9992084113983892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007942158027628498</v>
+        <v>0.0007655140236474681</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008282663092155069</v>
+        <v>0.001713868530401443</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003519763907726247</v>
+        <v>0.0008245923790412261</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004151358800723487</v>
+        <v>0.001102496521828806</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003835561354224867</v>
+        <v>0.0009635444504350159</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0104201048989092</v>
+        <v>0.003147254565485806</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08911878605338214</v>
+        <v>0.0276679240935685</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01201176823528</v>
+        <v>1.00115776807776</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09291275727699391</v>
+        <v>0.02884580490273028</v>
       </c>
       <c r="P6" t="n">
-        <v>91.67114049751812</v>
+        <v>96.34992604688522</v>
       </c>
       <c r="Q6" t="n">
-        <v>141.6450493171143</v>
+        <v>146.3238348664815</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9913214335097419</v>
+        <v>0.9991645350864139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9909585857568289</v>
+        <v>0.9981485729340753</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9888311384072803</v>
+        <v>0.9990136198815275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9918398079111167</v>
+        <v>0.9992911243283772</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9907629457224243</v>
+        <v>0.9991953740698192</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00810106087361462</v>
+        <v>0.0007798698241613439</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008439763323783196</v>
+        <v>0.001728225897784988</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003571422798827373</v>
+        <v>0.0008339661423322301</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004240595229349407</v>
+        <v>0.001124861582383039</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00390600901408839</v>
+        <v>0.0009794138623576347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01052328948518502</v>
+        <v>0.003177439517861312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0900058935493372</v>
+        <v>0.02792614946893581</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0122520938686</v>
+        <v>1.001179479878004</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09383763077561746</v>
+        <v>0.0291150234669272</v>
       </c>
       <c r="P7" t="n">
-        <v>91.6315205076573</v>
+        <v>96.31276708861903</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.6054293272535</v>
+        <v>146.2866759082153</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.991147778366308</v>
+        <v>0.9991488450532349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9907868403292609</v>
+        <v>0.9981328827624116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9886665868085286</v>
+        <v>0.9990023072706278</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9916643516108608</v>
+        <v>0.9992767258668386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9905929177017281</v>
+        <v>0.9991820600401911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00826316032743033</v>
+        <v>0.0007945157814210873</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008600080141665068</v>
+        <v>0.001742871984314148</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003624040814234487</v>
+        <v>0.000843530745566846</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004331774351325998</v>
+        <v>0.001147709419992057</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003977907582780243</v>
+        <v>0.0009956200827794513</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01062749481154624</v>
+        <v>0.003207921051903154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09090192697314138</v>
+        <v>0.02818715632023009</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012497254071095</v>
+        <v>1.00120163051308</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09477181019731788</v>
+        <v>0.02938714192023975</v>
       </c>
       <c r="P8" t="n">
-        <v>91.59189631679584</v>
+        <v>96.27555541769595</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.5658051363921</v>
+        <v>146.2494642372922</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9909705862820766</v>
+        <v>0.999132837445152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9906115686646204</v>
+        <v>0.9981168702051577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9884990134889299</v>
+        <v>0.9989908146091047</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9914850446250291</v>
+        <v>0.999262028243158</v>
       </c>
       <c r="F9" t="n">
-        <v>0.990419381070021</v>
+        <v>0.9991684884799288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008428561360226749</v>
+        <v>0.0008094581809137036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008763688547070046</v>
+        <v>0.001757819003640621</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003677625073393001</v>
+        <v>0.0008532475782727291</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004424954553510515</v>
+        <v>0.001171031975543645</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004051289813451759</v>
+        <v>0.001012139776908187</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01073274371274098</v>
+        <v>0.003238707579415297</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09180719666903434</v>
+        <v>0.02845097855810418</v>
       </c>
       <c r="N9" t="n">
-        <v>1.012747407601774</v>
+        <v>1.001224229489197</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09571561909833159</v>
+        <v>0.02966219561696745</v>
       </c>
       <c r="P9" t="n">
-        <v>91.55225835736363</v>
+        <v>96.23829089314351</v>
       </c>
       <c r="Q9" t="n">
-        <v>141.5261671769599</v>
+        <v>146.2121997127398</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9907897766355331</v>
+        <v>0.9991165067792687</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9904326851810928</v>
+        <v>0.99810052734976</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9883282858858724</v>
+        <v>0.9989790928118133</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9913018925373215</v>
+        <v>0.9992470260523615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9902422843463267</v>
+        <v>0.9991546388188123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008597339228648823</v>
+        <v>0.0008247021406824359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008930668426865528</v>
+        <v>0.001773074341786053</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003732217965326229</v>
+        <v>0.0008631581410316216</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004520132934229829</v>
+        <v>0.001194837825785415</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004126177475506018</v>
+        <v>0.001028997983408518</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0108390632229485</v>
+        <v>0.003269797093443468</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09272183792747436</v>
+        <v>0.02871762769941897</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013002668279247</v>
+        <v>1.001247284546915</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09666919852871184</v>
+        <v>0.02994019656426784</v>
       </c>
       <c r="P10" t="n">
-        <v>91.51260503122367</v>
+        <v>96.2009765568357</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.4865138508199</v>
+        <v>146.1748853764319</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9906052849802568</v>
+        <v>0.9990998243669824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9902501294288466</v>
+        <v>0.9980838458333761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9881544153343966</v>
+        <v>0.9989670918725619</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9911147823122027</v>
+        <v>0.9992317046643785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9900615767315939</v>
+        <v>0.9991404841536536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008769554090601612</v>
+        <v>0.0008402744402783434</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009101076208316097</v>
+        <v>0.00178864580509643</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003787815865473033</v>
+        <v>0.0008733047131536817</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004617368234497047</v>
+        <v>0.00121915018607751</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00420259204998504</v>
+        <v>0.001046227449615596</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01094645109661428</v>
+        <v>0.003301229011320911</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09364589735061335</v>
+        <v>0.02898748765033533</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013263127086696</v>
+        <v>1.00127083618779</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09763259707456057</v>
+        <v>0.03022154501198181</v>
       </c>
       <c r="P11" t="n">
-        <v>91.47293863749594</v>
+        <v>96.16356400973888</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.4468474570922</v>
+        <v>146.1374728293351</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9904170616788595</v>
+        <v>0.9990828152163574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9900638214177687</v>
+        <v>0.9980668271583313</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9879773183631216</v>
+        <v>0.9989548979612513</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9909235468462976</v>
+        <v>0.9992160644325954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9898771096150026</v>
+        <v>0.9991260546414038</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008945252280407913</v>
+        <v>0.0008561517357713386</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009274986558680708</v>
+        <v>0.001804531991217293</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003844445465147438</v>
+        <v>0.0008836144395819045</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004716747292681784</v>
+        <v>0.001243968495658089</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004280596378914612</v>
+        <v>0.001063791467619997</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01105491001824539</v>
+        <v>0.003332958662044189</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09457934383578644</v>
+        <v>0.02926007067269898</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013528854100434</v>
+        <v>1.001294849106319</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09860578230910808</v>
+        <v>0.03050573245793212</v>
       </c>
       <c r="P12" t="n">
-        <v>91.43326471781589</v>
+        <v>96.12612587223273</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.4071735374121</v>
+        <v>146.100034691829</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9902249813503694</v>
+        <v>0.9990654699458033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9898736835068893</v>
+        <v>0.9980494564278285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9877970070780304</v>
+        <v>0.998942469071603</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9907281176061383</v>
+        <v>0.9992001119650654</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9896888502529149</v>
+        <v>0.9991113400006323</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009124550835701451</v>
+        <v>0.0008723427844642682</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009452471952396926</v>
+        <v>0.001820746805654642</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003902102893267096</v>
+        <v>0.0008941228358475272</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004818305723472143</v>
+        <v>0.001269282268703052</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004360204308369619</v>
+        <v>0.00108170255227529</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01116446554801498</v>
+        <v>0.003364992776260446</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09552251481039144</v>
+        <v>0.02953544962353321</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01380002632889</v>
+        <v>1.001319336547101</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09958910602473507</v>
+        <v>0.03079283486081639</v>
       </c>
       <c r="P13" t="n">
-        <v>91.39357320841974</v>
+        <v>96.08865621969916</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.367482028016</v>
+        <v>146.0625650392954</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9900290325183119</v>
+        <v>0.9990477575979261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9896796433183155</v>
+        <v>0.9980317276259809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9876132763974883</v>
+        <v>0.9989297904855078</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9905284605591237</v>
+        <v>0.9991837930249431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9894967001928692</v>
+        <v>0.9990962997671849</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009307460469267547</v>
+        <v>0.0008888764837254572</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009633599951050708</v>
+        <v>0.001837295863974939</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003960853727977055</v>
+        <v>0.0009048423458397169</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004922061212540784</v>
+        <v>0.001295177569591013</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00444145747025892</v>
+        <v>0.001100009957715365</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01127510848989771</v>
+        <v>0.003397371455470208</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09647518058686154</v>
+        <v>0.02981403165835605</v>
       </c>
       <c r="N14" t="n">
-        <v>1.014076659974148</v>
+        <v>1.001344342214693</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1005823287555995</v>
+        <v>0.03108327670960595</v>
       </c>
       <c r="P14" t="n">
-        <v>91.35387799883532</v>
+        <v>96.05110454108953</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.3277868184315</v>
+        <v>146.0250133606858</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9898290519312523</v>
+        <v>0.9990296902187248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9894816227873039</v>
+        <v>0.9980136357707461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.987426163457409</v>
+        <v>0.9989168729058892</v>
       </c>
       <c r="E15" t="n">
-        <v>0.990324416411646</v>
+        <v>0.9991671454573445</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9893005755955787</v>
+        <v>0.9990809623263157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009494133569154394</v>
+        <v>0.0009057415891435232</v>
       </c>
       <c r="H15" t="n">
-        <v>0.009818443424653295</v>
+        <v>0.001854183816695951</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004020686094472726</v>
+        <v>0.0009157639204345765</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00502809653976662</v>
+        <v>0.001321594344748355</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004524391317119673</v>
+        <v>0.001118679132591466</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01138689436999183</v>
+        <v>0.003430068938266789</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09743784464546819</v>
+        <v>0.03009554101762458</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01435898550882</v>
+        <v>1.001369849102977</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1015859754161704</v>
+        <v>0.03137677050510324</v>
       </c>
       <c r="P15" t="n">
-        <v>91.31416238031086</v>
+        <v>96.01351302860125</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.2880711999071</v>
+        <v>145.9874218481975</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9896250227140974</v>
+        <v>0.9990112408668917</v>
       </c>
       <c r="C16" t="n">
-        <v>0.989279521054481</v>
+        <v>0.997995171374078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9872357891465557</v>
+        <v>0.9989036973521624</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9901160281053776</v>
+        <v>0.999150139688027</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9891005485547847</v>
+        <v>0.9990653084087174</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009684585887520912</v>
+        <v>0.0009229632492466977</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01000709652100272</v>
+        <v>0.001871419520492288</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004081561336631264</v>
+        <v>0.0009269036073653557</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005136389389712872</v>
+        <v>0.001348579523320394</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004608975363172068</v>
+        <v>0.001137733532059462</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01149978115164799</v>
+        <v>0.003463115912817124</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09841029360550101</v>
+        <v>0.03038031022301612</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014647026756568</v>
+        <v>1.001395895246741</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1025998235416787</v>
+        <v>0.03167366292512182</v>
       </c>
       <c r="P16" t="n">
-        <v>91.27443948233261</v>
+        <v>95.97584228177651</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.2483483019288</v>
+        <v>145.9497511013728</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9894168651219434</v>
+        <v>0.9989924242120413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9890732807121607</v>
+        <v>0.997976324791893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9870416750273823</v>
+        <v>0.9988902237207261</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9899031070481821</v>
+        <v>0.9991327824521333</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9888963222917961</v>
+        <v>0.9990493086776454</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009878891862734414</v>
+        <v>0.0009405277705939212</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01019961282765402</v>
+        <v>0.001889011977692612</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00414363244253899</v>
+        <v>0.0009382953134853534</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005247037767782499</v>
+        <v>0.001376122417814816</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004695335105160745</v>
+        <v>0.001157208865650084</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01161380015502401</v>
+        <v>0.003496481277177812</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09939261472933698</v>
+        <v>0.03066802521509856</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014940896298433</v>
+        <v>1.001422459935942</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1036239641094414</v>
+        <v>0.03197362654006936</v>
       </c>
       <c r="P17" t="n">
-        <v>91.23470986630998</v>
+        <v>95.9381387643604</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.2086186859062</v>
+        <v>145.9120475839566</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9892044580501169</v>
+        <v>0.9989732294232258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9888627993669525</v>
+        <v>0.9979570930041142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9868440327234114</v>
+        <v>0.9988765554151308</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9896855690478421</v>
+        <v>0.9991150619602133</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9886879250876021</v>
+        <v>0.9990330111592782</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01007716454069148</v>
+        <v>0.0009584452633993373</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01039608792434258</v>
+        <v>0.001906964007406254</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004206831742177087</v>
+        <v>0.0009498516130052693</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005360085426023358</v>
+        <v>0.001404241736024991</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004783458584100222</v>
+        <v>0.00117704667451513</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01172897192469284</v>
+        <v>0.003530183210217503</v>
       </c>
       <c r="M18" t="n">
-        <v>0.100385081265552</v>
+        <v>0.03095876714921538</v>
       </c>
       <c r="N18" t="n">
-        <v>1.015240765105717</v>
+        <v>1.001449558461328</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1046586820007921</v>
+        <v>0.0322767459602403</v>
       </c>
       <c r="P18" t="n">
-        <v>91.19496670295251</v>
+        <v>95.90039620726102</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.1688755225487</v>
+        <v>145.8743050268573</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.988987728497756</v>
+        <v>0.9989536430385852</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9886480098177882</v>
+        <v>0.9979374662101158</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9866427205121897</v>
+        <v>0.9988625899847164</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9894634513886906</v>
+        <v>0.9990969764479849</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9884753262673378</v>
+        <v>0.9990163725230974</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01027947206449267</v>
+        <v>0.0009767282937183457</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01059658454031587</v>
+        <v>0.001925284758087049</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004271204553575168</v>
+        <v>0.0009616591260629005</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005475512988940052</v>
+        <v>0.001432940277557402</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00487335877125761</v>
+        <v>0.001197299701810151</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01184530247420235</v>
+        <v>0.003564217638998989</v>
       </c>
       <c r="M19" t="n">
-        <v>0.101387731331225</v>
+        <v>0.03125265258691405</v>
       </c>
       <c r="N19" t="n">
-        <v>1.015546736238462</v>
+        <v>1.00147720982788</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1057040169555325</v>
+        <v>0.03258314270944853</v>
       </c>
       <c r="P19" t="n">
-        <v>91.15521275173592</v>
+        <v>95.86260409448326</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.1291215713321</v>
+        <v>145.8365129140795</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9887665878313755</v>
+        <v>0.9989336617796775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9884288073292282</v>
+        <v>0.9979174383774907</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9864376991667567</v>
+        <v>0.9988483595509783</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9892362982006943</v>
+        <v>0.9990785034279517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9882582308835404</v>
+        <v>0.9989993892670538</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01048589716960538</v>
+        <v>0.0009953799218328826</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01080120044150946</v>
+        <v>0.001943979860722378</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004336763420183633</v>
+        <v>0.0009736906945282318</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005593557357854029</v>
+        <v>0.001462253726132178</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004965160389018831</v>
+        <v>0.001217972210330205</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01196279924897923</v>
+        <v>0.003598601868669923</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1024006697712734</v>
+        <v>0.03154964218232725</v>
       </c>
       <c r="N20" t="n">
-        <v>1.015858934826293</v>
+        <v>1.001505418663985</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1067600782820454</v>
+        <v>0.03289277576679167</v>
       </c>
       <c r="P20" t="n">
-        <v>91.11544810265211</v>
+        <v>95.82477212539352</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.0893569222484</v>
+        <v>145.7986809449897</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9885409899717441</v>
+        <v>0.9989132535704982</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9882051068543024</v>
+        <v>0.9978969954626725</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9862289051788021</v>
+        <v>0.9988338384293904</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9890043720581039</v>
+        <v>0.9990596370060226</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9880367762664609</v>
+        <v>0.9989820486290923</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01069648286896972</v>
+        <v>0.00101443008928486</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01101001501553674</v>
+        <v>0.001963062424364823</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004403528649804265</v>
+        <v>0.0009859680341929066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005714082081183769</v>
+        <v>0.001492191434639537</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005058805365494017</v>
+        <v>0.001239079734416222</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01208145722136652</v>
+        <v>0.003633352500544604</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1034238022360894</v>
+        <v>0.03185011914082678</v>
       </c>
       <c r="N21" t="n">
-        <v>1.016177425922244</v>
+        <v>1.001534230253414</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1078267676140648</v>
+        <v>0.03320604465148758</v>
       </c>
       <c r="P21" t="n">
-        <v>91.07568059076766</v>
+        <v>95.78685662514265</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.0495894103639</v>
+        <v>145.7607654447389</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9883107789954099</v>
+        <v>0.9988924391527714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9879768202347051</v>
+        <v>0.9978761367581586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9860162813624919</v>
+        <v>0.9988190408591054</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9887674247428543</v>
+        <v>0.9990403772610318</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9878107882731837</v>
+        <v>0.9989643556058234</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01091137471028378</v>
+        <v>0.00103385943458551</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01122311055430629</v>
+        <v>0.001982533109437338</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004471518528525593</v>
+        <v>0.0009984791061167868</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005837216150052463</v>
+        <v>0.001522753277983856</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005154367339289027</v>
+        <v>0.001260616192050322</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01220132426543919</v>
+        <v>0.003668438062123143</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1044575258671379</v>
+        <v>0.03215368461911496</v>
       </c>
       <c r="N22" t="n">
-        <v>1.016502429653539</v>
+        <v>1.001563615313735</v>
       </c>
       <c r="O22" t="n">
-        <v>0.10890449900019</v>
+        <v>0.03352253354065366</v>
       </c>
       <c r="P22" t="n">
-        <v>91.03589896493222</v>
+        <v>95.74891291095587</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0098077845284</v>
+        <v>145.7228217305521</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9880758755823191</v>
+        <v>0.9988712005490696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9877438404041547</v>
+        <v>0.997854847345199</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9857996992610618</v>
+        <v>0.9988039519575855</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9885252709778315</v>
+        <v>0.9990207035994615</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9875801044884771</v>
+        <v>0.9989462916053368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0111306467353359</v>
+        <v>0.001053684738874157</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01144058699949248</v>
+        <v>0.002002405841937799</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004540774132460152</v>
+        <v>0.001011236493210181</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005963055847150227</v>
+        <v>0.001553971934471998</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005251914989805189</v>
+        <v>0.00128260421384109</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01232240193333984</v>
+        <v>0.003703885581111092</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1055018802455004</v>
+        <v>0.03246051045307446</v>
       </c>
       <c r="N23" t="n">
-        <v>1.016834058001432</v>
+        <v>1.001593599224843</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1099933137065509</v>
+        <v>0.03384242158558187</v>
       </c>
       <c r="P23" t="n">
-        <v>90.9961060159704</v>
+        <v>95.71092396566522</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.9700148355666</v>
+        <v>145.6848327852614</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9878361981575817</v>
+        <v>0.998849535453185</v>
       </c>
       <c r="C24" t="n">
-        <v>0.987506089187519</v>
+        <v>0.9978331217956457</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9855790853649913</v>
+        <v>0.9987885658133565</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9882778728092647</v>
+        <v>0.9990006280285825</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9873446737974121</v>
+        <v>0.9989278624011543</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01135437509070522</v>
+        <v>0.001073908154894643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01166251732414962</v>
+        <v>0.002022685688804444</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004611318967457288</v>
+        <v>0.001024245193515162</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006091620895858263</v>
+        <v>0.001585828350667727</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005351469931657775</v>
+        <v>0.001305036772091445</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01244467923472967</v>
+        <v>0.003739666500220939</v>
       </c>
       <c r="M24" t="n">
-        <v>0.10655691010303</v>
+        <v>0.0327705379097543</v>
       </c>
       <c r="N24" t="n">
-        <v>1.017172426130473</v>
+        <v>1.001624185242562</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1110932583693284</v>
+        <v>0.03416564755293786</v>
       </c>
       <c r="P24" t="n">
-        <v>90.95630427756539</v>
+        <v>95.67290160682023</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.9302130971616</v>
+        <v>145.6468104264165</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9875916490212575</v>
+        <v>0.9988274230022567</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9872634462335805</v>
+        <v>0.9978109452973245</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9853543946041127</v>
+        <v>0.9987728810792115</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9880253029402413</v>
+        <v>0.9989801472959705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9871045238325733</v>
+        <v>0.9989090654054034</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01158265097499735</v>
+        <v>0.001094549157211872</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01188901387085647</v>
+        <v>0.00204338647655151</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004683167445426696</v>
+        <v>0.001037506346070389</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006222873514668225</v>
+        <v>0.001618327687598753</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00545302048004746</v>
+        <v>0.001327917016834571</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0125682061729202</v>
+        <v>0.003775830531274396</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1076227251791988</v>
+        <v>0.03308397130351603</v>
       </c>
       <c r="N25" t="n">
-        <v>1.017517671969989</v>
+        <v>1.001655402820343</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1122044473998311</v>
+        <v>0.0344924244551686</v>
       </c>
       <c r="P25" t="n">
-        <v>90.9164938120159</v>
+        <v>95.63482545814158</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.8904026316121</v>
+        <v>145.6087342777378</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9873421653348503</v>
+        <v>0.9988048579382517</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9870158487907359</v>
+        <v>0.9977883166920321</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9851257533569961</v>
+        <v>0.9987568927675449</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9877671898446915</v>
+        <v>0.9989592103450807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9868594740877235</v>
+        <v>0.998889865606291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01181553304519035</v>
+        <v>0.001115612653968661</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01212013521548029</v>
+        <v>0.002064509286311076</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004756279154791637</v>
+        <v>0.001051024167803878</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00635700677399581</v>
+        <v>0.001651550963062859</v>
       </c>
       <c r="K26" t="n">
-        <v>0.005556642964393724</v>
+        <v>0.001351287565433369</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01269294408475823</v>
+        <v>0.003812356963616633</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1086992780343565</v>
+        <v>0.03340078822376293</v>
       </c>
       <c r="N26" t="n">
-        <v>1.017869884233153</v>
+        <v>1.001687259381292</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1133268313388046</v>
+        <v>0.03482272892761186</v>
       </c>
       <c r="P26" t="n">
-        <v>90.87668050678111</v>
+        <v>95.59670311905634</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.8505893263773</v>
+        <v>145.5706119386526</v>
       </c>
     </row>
   </sheetData>
